--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-24.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G937"/>
+  <dimension ref="A1:G935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22157,10 +22157,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G828" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G828" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="829">
@@ -22194,10 +22192,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="830">
@@ -22231,10 +22227,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="831">
@@ -22268,10 +22262,8 @@
           <t>1910.0K</t>
         </is>
       </c>
-      <c r="G831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -22305,10 +22297,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -22338,10 +22328,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="G833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -22371,10 +22359,8 @@
           <t>148.1</t>
         </is>
       </c>
-      <c r="G834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -22404,10 +22390,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -22437,10 +22421,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -22474,10 +22456,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="838">
@@ -22507,10 +22487,8 @@
         </is>
       </c>
       <c r="F838" t="inlineStr"/>
-      <c r="G838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -22536,10 +22514,8 @@
       </c>
       <c r="E839" t="inlineStr"/>
       <c r="F839" t="inlineStr"/>
-      <c r="G839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -22565,10 +22541,8 @@
       </c>
       <c r="E840" t="inlineStr"/>
       <c r="F840" t="inlineStr"/>
-      <c r="G840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="841">
@@ -22594,10 +22568,8 @@
       </c>
       <c r="E841" t="inlineStr"/>
       <c r="F841" t="inlineStr"/>
-      <c r="G841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -22623,10 +22595,8 @@
       </c>
       <c r="E842" t="inlineStr"/>
       <c r="F842" t="inlineStr"/>
-      <c r="G842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="843">
@@ -22652,10 +22622,8 @@
       </c>
       <c r="E843" t="inlineStr"/>
       <c r="F843" t="inlineStr"/>
-      <c r="G843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="844">
@@ -22681,24 +22649,38 @@
       </c>
       <c r="E844" t="inlineStr"/>
       <c r="F844" t="inlineStr"/>
-      <c r="G844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B845" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
+        </is>
+      </c>
       <c r="C845" t="inlineStr"/>
-      <c r="D845" t="inlineStr"/>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E845" t="inlineStr"/>
-      <c r="F845" t="inlineStr"/>
-      <c r="G845" t="inlineStr"/>
+      <c r="F845" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="G845" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
@@ -22708,28 +22690,28 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C846" t="inlineStr"/>
       <c r="D846" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t>63.1</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>63.2</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="G846" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22741,19 +22723,23 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C847" t="inlineStr"/>
       <c r="D847" t="inlineStr">
         <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E847" t="inlineStr"/>
+          <t>65.7</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="G847" t="inlineStr">
@@ -22770,23 +22756,19 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C848" t="inlineStr"/>
       <c r="D848" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E848" t="inlineStr">
-        <is>
-          <t>64.3</t>
-        </is>
-      </c>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr"/>
       <c r="F848" t="inlineStr">
         <is>
-          <t>63.5</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
@@ -22798,30 +22780,22 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAR</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C849" t="inlineStr"/>
       <c r="D849" t="inlineStr">
         <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E849" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="F849" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr"/>
+      <c r="F849" t="inlineStr"/>
       <c r="G849" t="inlineStr">
         <is>
           <t>3</t>
@@ -22831,26 +22805,22 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
         </is>
       </c>
       <c r="C850" t="inlineStr"/>
       <c r="D850" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>592</t>
         </is>
       </c>
       <c r="E850" t="inlineStr"/>
-      <c r="F850" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="F850" t="inlineStr"/>
       <c r="G850" t="inlineStr">
         <is>
           <t>3</t>
@@ -22860,78 +22830,86 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B851" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
+          <t>Sunday March 16 2025</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr"/>
       <c r="C851" t="inlineStr"/>
-      <c r="D851" t="inlineStr">
-        <is>
-          <t>486</t>
-        </is>
-      </c>
+      <c r="D851" t="inlineStr"/>
       <c r="E851" t="inlineStr"/>
       <c r="F851" t="inlineStr"/>
-      <c r="G851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G851" t="inlineStr"/>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B852" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
+          <t>Monday March 17 2025</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr"/>
       <c r="C852" t="inlineStr"/>
-      <c r="D852" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
+      <c r="D852" t="inlineStr"/>
       <c r="E852" t="inlineStr"/>
       <c r="F852" t="inlineStr"/>
-      <c r="G852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G852" t="inlineStr"/>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B853" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMFEB</t>
+        </is>
+      </c>
       <c r="C853" t="inlineStr"/>
-      <c r="D853" t="inlineStr"/>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="E853" t="inlineStr"/>
-      <c r="F853" t="inlineStr"/>
-      <c r="G853" t="inlineStr"/>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G853" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Monday March 17 2025</t>
-        </is>
-      </c>
-      <c r="B854" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>NY Empire State Manufacturing IndexMAR</t>
+        </is>
+      </c>
       <c r="C854" t="inlineStr"/>
-      <c r="D854" t="inlineStr"/>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
       <c r="E854" t="inlineStr"/>
-      <c r="F854" t="inlineStr"/>
-      <c r="G854" t="inlineStr"/>
+      <c r="F854" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G854" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
@@ -22941,24 +22919,24 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>Retail Sales MoMFEB</t>
+          <t>Retail Sales Control Group MoMFEB</t>
         </is>
       </c>
       <c r="C855" t="inlineStr"/>
       <c r="D855" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="E855" t="inlineStr"/>
       <c r="F855" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G855" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22970,19 +22948,23 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexMAR</t>
+          <t>Retail Sales Ex Autos MoMFEB</t>
         </is>
       </c>
       <c r="C856" t="inlineStr"/>
       <c r="D856" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="E856" t="inlineStr"/>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G856" t="inlineStr">
@@ -22999,24 +22981,24 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMFEB</t>
+          <t>Retail Sales Ex Gas/Autos MoMFEB</t>
         </is>
       </c>
       <c r="C857" t="inlineStr"/>
       <c r="D857" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E857" t="inlineStr"/>
       <c r="F857" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -23028,86 +23010,82 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMFEB</t>
+          <t>Retail Sales YoYFEB</t>
         </is>
       </c>
       <c r="C858" t="inlineStr"/>
       <c r="D858" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E858" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr"/>
       <c r="F858" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G858" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMFEB</t>
+          <t>Business Inventories MoMJAN</t>
         </is>
       </c>
       <c r="C859" t="inlineStr"/>
       <c r="D859" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E859" t="inlineStr"/>
       <c r="F859" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Retail Sales YoYFEB</t>
+          <t>NAHB Housing Market IndexMAR</t>
         </is>
       </c>
       <c r="C860" t="inlineStr"/>
       <c r="D860" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E860" t="inlineStr"/>
       <c r="F860" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23119,83 +23097,75 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Business Inventories MoMJAN</t>
+          <t>Retail Inventories Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C861" t="inlineStr"/>
       <c r="D861" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E861" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexMAR</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C862" t="inlineStr"/>
       <c r="D862" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.200%</t>
         </is>
       </c>
       <c r="E862" t="inlineStr"/>
-      <c r="F862" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
+      <c r="F862" t="inlineStr"/>
       <c r="G862" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C863" t="inlineStr"/>
       <c r="D863" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E863" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F863" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>4.075%</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr"/>
+      <c r="F863" t="inlineStr"/>
       <c r="G863" t="inlineStr">
         <is>
           <t>3</t>
@@ -23205,20 +23175,16 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C864" t="inlineStr"/>
-      <c r="D864" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
+      <c r="D864" t="inlineStr"/>
       <c r="E864" t="inlineStr"/>
       <c r="F864" t="inlineStr"/>
       <c r="G864" t="inlineStr">
@@ -23230,61 +23196,73 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B865" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Tuesday March 18 2025</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr"/>
       <c r="C865" t="inlineStr"/>
-      <c r="D865" t="inlineStr">
-        <is>
-          <t>4.075%</t>
-        </is>
-      </c>
+      <c r="D865" t="inlineStr"/>
       <c r="E865" t="inlineStr"/>
       <c r="F865" t="inlineStr"/>
-      <c r="G865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G865" t="inlineStr"/>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Building Permits PrelFEB</t>
         </is>
       </c>
       <c r="C866" t="inlineStr"/>
-      <c r="D866" t="inlineStr"/>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>1.473M</t>
+        </is>
+      </c>
       <c r="E866" t="inlineStr"/>
-      <c r="F866" t="inlineStr"/>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>1.471M</t>
+        </is>
+      </c>
       <c r="G866" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>Tuesday March 18 2025</t>
-        </is>
-      </c>
-      <c r="B867" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Housing StartsFEB</t>
+        </is>
+      </c>
       <c r="C867" t="inlineStr"/>
-      <c r="D867" t="inlineStr"/>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>1.366M</t>
+        </is>
+      </c>
       <c r="E867" t="inlineStr"/>
-      <c r="F867" t="inlineStr"/>
-      <c r="G867" t="inlineStr"/>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>1.34M</t>
+        </is>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
@@ -23294,24 +23272,24 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>Building Permits PrelFEB</t>
+          <t>Building Permits MoM PrelFEB</t>
         </is>
       </c>
       <c r="C868" t="inlineStr"/>
       <c r="D868" t="inlineStr">
         <is>
-          <t>1.473M</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E868" t="inlineStr"/>
       <c r="F868" t="inlineStr">
         <is>
-          <t>1.471M</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23323,24 +23301,24 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>Housing StartsFEB</t>
+          <t>Export Prices MoMFEB</t>
         </is>
       </c>
       <c r="C869" t="inlineStr"/>
       <c r="D869" t="inlineStr">
         <is>
-          <t>1.366M</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E869" t="inlineStr"/>
       <c r="F869" t="inlineStr">
         <is>
-          <t>1.34M</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23352,19 +23330,19 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelFEB</t>
+          <t>Housing Starts MoMFEB</t>
         </is>
       </c>
       <c r="C870" t="inlineStr"/>
       <c r="D870" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-9.8%</t>
         </is>
       </c>
       <c r="E870" t="inlineStr"/>
       <c r="F870" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
@@ -23381,19 +23359,19 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Export Prices MoMFEB</t>
+          <t>Import Prices MoMFEB</t>
         </is>
       </c>
       <c r="C871" t="inlineStr"/>
       <c r="D871" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E871" t="inlineStr"/>
       <c r="F871" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G871" t="inlineStr">
@@ -23410,24 +23388,24 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Housing Starts MoMFEB</t>
+          <t>Export Prices YoYFEB</t>
         </is>
       </c>
       <c r="C872" t="inlineStr"/>
       <c r="D872" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="E872" t="inlineStr"/>
       <c r="F872" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G872" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -23439,50 +23417,46 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Import Prices MoMFEB</t>
+          <t>Import Prices YoYFEB</t>
         </is>
       </c>
       <c r="C873" t="inlineStr"/>
       <c r="D873" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="E873" t="inlineStr"/>
       <c r="F873" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:55 AM</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>Export Prices YoYFEB</t>
+          <t>Redbook YoYMAR/15</t>
         </is>
       </c>
       <c r="C874" t="inlineStr"/>
       <c r="D874" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>5.7%</t>
         </is>
       </c>
       <c r="E874" t="inlineStr"/>
-      <c r="F874" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="F874" t="inlineStr"/>
       <c r="G874" t="inlineStr">
         <is>
           <t>3</t>
@@ -23492,51 +23466,55 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>Import Prices YoYFEB</t>
+          <t>Industrial Production MoMFEB</t>
         </is>
       </c>
       <c r="C875" t="inlineStr"/>
       <c r="D875" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E875" t="inlineStr"/>
       <c r="F875" t="inlineStr">
         <is>
-          <t>5.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>Redbook YoYMAR/15</t>
+          <t>Capacity UtilizationFEB</t>
         </is>
       </c>
       <c r="C876" t="inlineStr"/>
       <c r="D876" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="E876" t="inlineStr"/>
-      <c r="F876" t="inlineStr"/>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>77.7%</t>
+        </is>
+      </c>
       <c r="G876" t="inlineStr">
         <is>
           <t>3</t>
@@ -23551,24 +23529,24 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>Industrial Production MoMFEB</t>
+          <t>Industrial Production YoYFEB</t>
         </is>
       </c>
       <c r="C877" t="inlineStr"/>
       <c r="D877" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -23580,19 +23558,19 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>Capacity UtilizationFEB</t>
+          <t>Manufacturing Production MoMFEB</t>
         </is>
       </c>
       <c r="C878" t="inlineStr"/>
       <c r="D878" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E878" t="inlineStr"/>
       <c r="F878" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G878" t="inlineStr">
@@ -23609,19 +23587,19 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>Industrial Production YoYFEB</t>
+          <t>Manufacturing Production YoYFEB</t>
         </is>
       </c>
       <c r="C879" t="inlineStr"/>
       <c r="D879" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E879" t="inlineStr"/>
       <c r="F879" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="G879" t="inlineStr">
@@ -23633,26 +23611,22 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMFEB</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C880" t="inlineStr"/>
       <c r="D880" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.05%</t>
         </is>
       </c>
       <c r="E880" t="inlineStr"/>
-      <c r="F880" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F880" t="inlineStr"/>
       <c r="G880" t="inlineStr">
         <is>
           <t>3</t>
@@ -23662,26 +23636,22 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYFEB</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C881" t="inlineStr"/>
       <c r="D881" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="E881" t="inlineStr"/>
-      <c r="F881" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="F881" t="inlineStr"/>
       <c r="G881" t="inlineStr">
         <is>
           <t>3</t>
@@ -23691,45 +23661,37 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>API Crude Oil Stock ChangeMAR/14</t>
         </is>
       </c>
       <c r="C882" t="inlineStr"/>
       <c r="D882" t="inlineStr">
         <is>
-          <t>4.05%</t>
+          <t>4.247M</t>
         </is>
       </c>
       <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="883">
-      <c r="A883" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
+      <c r="A883" t="inlineStr"/>
       <c r="B883" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>International Monetary Market (IMM) Date</t>
         </is>
       </c>
       <c r="C883" t="inlineStr"/>
-      <c r="D883" t="inlineStr">
-        <is>
-          <t>4.83%</t>
-        </is>
-      </c>
+      <c r="D883" t="inlineStr"/>
       <c r="E883" t="inlineStr"/>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr">
@@ -23741,57 +23703,65 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B884" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/14</t>
-        </is>
-      </c>
+          <t>Wednesday March 19 2025</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr"/>
       <c r="C884" t="inlineStr"/>
-      <c r="D884" t="inlineStr">
-        <is>
-          <t>4.247M</t>
-        </is>
-      </c>
+      <c r="D884" t="inlineStr"/>
       <c r="E884" t="inlineStr"/>
       <c r="F884" t="inlineStr"/>
-      <c r="G884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G884" t="inlineStr"/>
     </row>
     <row r="885">
-      <c r="A885" t="inlineStr"/>
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>International Monetary Market (IMM) Date</t>
+          <t>MBA 30-Year Mortgage RateMAR/14</t>
         </is>
       </c>
       <c r="C885" t="inlineStr"/>
-      <c r="D885" t="inlineStr"/>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>6.67%</t>
+        </is>
+      </c>
       <c r="E885" t="inlineStr"/>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Wednesday March 19 2025</t>
-        </is>
-      </c>
-      <c r="B886" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsMAR/14</t>
+        </is>
+      </c>
       <c r="C886" t="inlineStr"/>
-      <c r="D886" t="inlineStr"/>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="E886" t="inlineStr"/>
       <c r="F886" t="inlineStr"/>
-      <c r="G886" t="inlineStr"/>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
@@ -23801,20 +23771,20 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAR/14</t>
+          <t>MBA Mortgage Market IndexMAR/14</t>
         </is>
       </c>
       <c r="C887" t="inlineStr"/>
       <c r="D887" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>269.3</t>
         </is>
       </c>
       <c r="E887" t="inlineStr"/>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -23826,13 +23796,13 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAR/14</t>
+          <t>MBA Mortgage Refinance IndexMAR/14</t>
         </is>
       </c>
       <c r="C888" t="inlineStr"/>
       <c r="D888" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>911.3</t>
         </is>
       </c>
       <c r="E888" t="inlineStr"/>
@@ -23851,13 +23821,13 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAR/14</t>
+          <t>MBA Purchase IndexMAR/14</t>
         </is>
       </c>
       <c r="C889" t="inlineStr"/>
       <c r="D889" t="inlineStr">
         <is>
-          <t>269.3</t>
+          <t>154.6</t>
         </is>
       </c>
       <c r="E889" t="inlineStr"/>
@@ -23871,50 +23841,50 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAR/14</t>
+          <t>EIA Crude Oil Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C890" t="inlineStr"/>
       <c r="D890" t="inlineStr">
         <is>
-          <t>911.3</t>
+          <t>1.448M</t>
         </is>
       </c>
       <c r="E890" t="inlineStr"/>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAR/14</t>
+          <t>EIA Gasoline Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C891" t="inlineStr"/>
       <c r="D891" t="inlineStr">
         <is>
-          <t>154.6</t>
+          <t>-5.737M</t>
         </is>
       </c>
       <c r="E891" t="inlineStr"/>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23926,20 +23896,20 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/14</t>
+          <t>EIA Crude Oil Imports ChangeMAR/14</t>
         </is>
       </c>
       <c r="C892" t="inlineStr"/>
       <c r="D892" t="inlineStr">
         <is>
-          <t>1.448M</t>
+          <t>0.503M</t>
         </is>
       </c>
       <c r="E892" t="inlineStr"/>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -23951,20 +23921,20 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAR/14</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C893" t="inlineStr"/>
       <c r="D893" t="inlineStr">
         <is>
-          <t>-5.737M</t>
+          <t>-1.228M</t>
         </is>
       </c>
       <c r="E893" t="inlineStr"/>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -23976,13 +23946,13 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAR/14</t>
+          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
         </is>
       </c>
       <c r="C894" t="inlineStr"/>
       <c r="D894" t="inlineStr">
         <is>
-          <t>0.503M</t>
+          <t>-0.113M</t>
         </is>
       </c>
       <c r="E894" t="inlineStr"/>
@@ -24001,13 +23971,13 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
+          <t>EIA Distillate Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C895" t="inlineStr"/>
       <c r="D895" t="inlineStr">
         <is>
-          <t>-1.228M</t>
+          <t>-1.559M</t>
         </is>
       </c>
       <c r="E895" t="inlineStr"/>
@@ -24026,13 +23996,13 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
+          <t>EIA Gasoline Production ChangeMAR/14</t>
         </is>
       </c>
       <c r="C896" t="inlineStr"/>
       <c r="D896" t="inlineStr">
         <is>
-          <t>-0.113M</t>
+          <t>-0.078M</t>
         </is>
       </c>
       <c r="E896" t="inlineStr"/>
@@ -24051,13 +24021,13 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAR/14</t>
+          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C897" t="inlineStr"/>
       <c r="D897" t="inlineStr">
         <is>
-          <t>-1.559M</t>
+          <t>-0.183M</t>
         </is>
       </c>
       <c r="E897" t="inlineStr"/>
@@ -24076,13 +24046,13 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAR/14</t>
+          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
         </is>
       </c>
       <c r="C898" t="inlineStr"/>
       <c r="D898" t="inlineStr">
         <is>
-          <t>-0.078M</t>
+          <t>0.321M</t>
         </is>
       </c>
       <c r="E898" t="inlineStr"/>
@@ -24096,18 +24066,18 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C899" t="inlineStr"/>
       <c r="D899" t="inlineStr">
         <is>
-          <t>-0.183M</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="E899" t="inlineStr"/>
@@ -24121,50 +24091,54 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C900" t="inlineStr"/>
       <c r="D900" t="inlineStr">
         <is>
-          <t>0.321M</t>
-        </is>
-      </c>
-      <c r="E900" t="inlineStr"/>
-      <c r="F900" t="inlineStr"/>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G900" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>FOMC Economic Projections</t>
         </is>
       </c>
       <c r="C901" t="inlineStr"/>
-      <c r="D901" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
+      <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr"/>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24176,28 +24150,20 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>Fed Interest Rate Decision</t>
+          <t>Interest Rate Projection - 1st Yr</t>
         </is>
       </c>
       <c r="C902" t="inlineStr"/>
       <c r="D902" t="inlineStr">
         <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E902" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F902" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr"/>
+      <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -24209,16 +24175,20 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>FOMC Economic Projections</t>
+          <t>Interest Rate Projection - 2nd Yr</t>
         </is>
       </c>
       <c r="C903" t="inlineStr"/>
-      <c r="D903" t="inlineStr"/>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E903" t="inlineStr"/>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -24230,13 +24200,13 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>Interest Rate Projection - 1st Yr</t>
+          <t>Interest Rate Projection - Current</t>
         </is>
       </c>
       <c r="C904" t="inlineStr"/>
       <c r="D904" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E904" t="inlineStr"/>
@@ -24255,13 +24225,13 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>Interest Rate Projection - 2nd Yr</t>
+          <t>Interest Rate Projection - Longer</t>
         </is>
       </c>
       <c r="C905" t="inlineStr"/>
       <c r="D905" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E905" t="inlineStr"/>
@@ -24275,71 +24245,71 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>Interest Rate Projection - Current</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C906" t="inlineStr"/>
-      <c r="D906" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr"/>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>Interest Rate Projection - Longer</t>
+          <t>Net Long-term TIC FlowsJAN</t>
         </is>
       </c>
       <c r="C907" t="inlineStr"/>
       <c r="D907" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$72B</t>
         </is>
       </c>
       <c r="E907" t="inlineStr"/>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>Fed Press Conference</t>
+          <t>Foreign Bond InvestmentJAN</t>
         </is>
       </c>
       <c r="C908" t="inlineStr"/>
-      <c r="D908" t="inlineStr"/>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>$-49.7B</t>
+        </is>
+      </c>
       <c r="E908" t="inlineStr"/>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -24351,85 +24321,93 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsJAN</t>
+          <t>Overall Net Capital FlowsJAN</t>
         </is>
       </c>
       <c r="C909" t="inlineStr"/>
       <c r="D909" t="inlineStr">
         <is>
-          <t>$72B</t>
+          <t>$87.1B</t>
         </is>
       </c>
       <c r="E909" t="inlineStr"/>
       <c r="F909" t="inlineStr"/>
       <c r="G909" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B910" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN</t>
-        </is>
-      </c>
+          <t>Thursday March 20 2025</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr"/>
       <c r="C910" t="inlineStr"/>
-      <c r="D910" t="inlineStr">
-        <is>
-          <t>$-49.7B</t>
-        </is>
-      </c>
+      <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr"/>
       <c r="F910" t="inlineStr"/>
-      <c r="G910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G910" t="inlineStr"/>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsJAN</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="C911" t="inlineStr"/>
       <c r="D911" t="inlineStr">
         <is>
-          <t>$87.1B</t>
+          <t>$-310.9B</t>
         </is>
       </c>
       <c r="E911" t="inlineStr"/>
-      <c r="F911" t="inlineStr"/>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>$ -390.0B</t>
+        </is>
+      </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>Thursday March 20 2025</t>
-        </is>
-      </c>
-      <c r="B912" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsMAR/15</t>
+        </is>
+      </c>
       <c r="C912" t="inlineStr"/>
-      <c r="D912" t="inlineStr"/>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>220K</t>
+        </is>
+      </c>
       <c r="E912" t="inlineStr"/>
-      <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr"/>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
@@ -24439,19 +24417,19 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Philadelphia Fed Manufacturing IndexMAR</t>
         </is>
       </c>
       <c r="C913" t="inlineStr"/>
       <c r="D913" t="inlineStr">
         <is>
-          <t>$-310.9B</t>
+          <t>18.1</t>
         </is>
       </c>
       <c r="E913" t="inlineStr"/>
       <c r="F913" t="inlineStr">
         <is>
-          <t>$ -390.0B</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G913" t="inlineStr">
@@ -24468,24 +24446,24 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAR/15</t>
+          <t>Continuing Jobless ClaimsMAR/08</t>
         </is>
       </c>
       <c r="C914" t="inlineStr"/>
       <c r="D914" t="inlineStr">
         <is>
-          <t>220K</t>
+          <t>1870K</t>
         </is>
       </c>
       <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr">
         <is>
-          <t>225.0K</t>
+          <t>1880.0K</t>
         </is>
       </c>
       <c r="G914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -24497,24 +24475,24 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexMAR</t>
+          <t>Jobless Claims 4-week AverageMAR/15</t>
         </is>
       </c>
       <c r="C915" t="inlineStr"/>
       <c r="D915" t="inlineStr">
         <is>
-          <t>18.1</t>
+          <t>226K</t>
         </is>
       </c>
       <c r="E915" t="inlineStr"/>
       <c r="F915" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>229.0K</t>
         </is>
       </c>
       <c r="G915" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -24526,21 +24504,17 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAR/08</t>
+          <t>Philly Fed Business ConditionsMAR</t>
         </is>
       </c>
       <c r="C916" t="inlineStr"/>
       <c r="D916" t="inlineStr">
         <is>
-          <t>1870K</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="E916" t="inlineStr"/>
-      <c r="F916" t="inlineStr">
-        <is>
-          <t>1880.0K</t>
-        </is>
-      </c>
+      <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr">
         <is>
           <t>3</t>
@@ -24555,21 +24529,17 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAR/15</t>
+          <t>Philly Fed CAPEX IndexMAR</t>
         </is>
       </c>
       <c r="C917" t="inlineStr"/>
       <c r="D917" t="inlineStr">
         <is>
-          <t>226K</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="E917" t="inlineStr"/>
-      <c r="F917" t="inlineStr">
-        <is>
-          <t>229.0K</t>
-        </is>
-      </c>
+      <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr">
         <is>
           <t>3</t>
@@ -24584,13 +24554,13 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsMAR</t>
+          <t>Philly Fed EmploymentMAR</t>
         </is>
       </c>
       <c r="C918" t="inlineStr"/>
       <c r="D918" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E918" t="inlineStr"/>
@@ -24609,13 +24579,13 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexMAR</t>
+          <t>Philly Fed New OrdersMAR</t>
         </is>
       </c>
       <c r="C919" t="inlineStr"/>
       <c r="D919" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>21.9</t>
         </is>
       </c>
       <c r="E919" t="inlineStr"/>
@@ -24634,13 +24604,13 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentMAR</t>
+          <t>Philly Fed Prices PaidMAR</t>
         </is>
       </c>
       <c r="C920" t="inlineStr"/>
       <c r="D920" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>40.50</t>
         </is>
       </c>
       <c r="E920" t="inlineStr"/>
@@ -24654,50 +24624,58 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersMAR</t>
+          <t>Existing Home SalesFEB</t>
         </is>
       </c>
       <c r="C921" t="inlineStr"/>
       <c r="D921" t="inlineStr">
         <is>
-          <t>21.9</t>
+          <t>4.08M</t>
         </is>
       </c>
       <c r="E921" t="inlineStr"/>
-      <c r="F921" t="inlineStr"/>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>4.05M</t>
+        </is>
+      </c>
       <c r="G921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidMAR</t>
+          <t>Existing Home Sales MoMFEB</t>
         </is>
       </c>
       <c r="C922" t="inlineStr"/>
       <c r="D922" t="inlineStr">
         <is>
-          <t>40.50</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="E922" t="inlineStr"/>
-      <c r="F922" t="inlineStr"/>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G922" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -24709,79 +24687,71 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>Existing Home SalesFEB</t>
+          <t>CB Leading Index MoMFEB</t>
         </is>
       </c>
       <c r="C923" t="inlineStr"/>
       <c r="D923" t="inlineStr">
         <is>
-          <t>4.08M</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E923" t="inlineStr"/>
       <c r="F923" t="inlineStr">
         <is>
-          <t>4.05M</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMFEB</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C924" t="inlineStr"/>
       <c r="D924" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>-62Bcf</t>
         </is>
       </c>
       <c r="E924" t="inlineStr"/>
-      <c r="F924" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C925" t="inlineStr"/>
       <c r="D925" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E925" t="inlineStr"/>
-      <c r="F925" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F925" t="inlineStr"/>
       <c r="G925" t="inlineStr">
         <is>
           <t>3</t>
@@ -24791,18 +24761,18 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C926" t="inlineStr"/>
       <c r="D926" t="inlineStr">
         <is>
-          <t>-62Bcf</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E926" t="inlineStr"/>
@@ -24816,18 +24786,18 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>15-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C927" t="inlineStr"/>
       <c r="D927" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="E927" t="inlineStr"/>
@@ -24841,18 +24811,18 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>30-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C928" t="inlineStr"/>
       <c r="D928" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>6.65%</t>
         </is>
       </c>
       <c r="E928" t="inlineStr"/>
@@ -24866,18 +24836,18 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAR/20</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C929" t="inlineStr"/>
       <c r="D929" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>2.243%</t>
         </is>
       </c>
       <c r="E929" t="inlineStr"/>
@@ -24891,18 +24861,18 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAR/20</t>
+          <t>Fed Balance SheetMAR/19</t>
         </is>
       </c>
       <c r="C930" t="inlineStr"/>
       <c r="D930" t="inlineStr">
         <is>
-          <t>6.65%</t>
+          <t>$6.76T</t>
         </is>
       </c>
       <c r="E930" t="inlineStr"/>
@@ -24916,45 +24886,29 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B931" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
+          <t>Friday March 21 2025</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr"/>
       <c r="C931" t="inlineStr"/>
-      <c r="D931" t="inlineStr">
-        <is>
-          <t>2.243%</t>
-        </is>
-      </c>
+      <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr"/>
       <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G931" t="inlineStr"/>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/19</t>
+          <t>Baker Hughes Oil Rig CountMAR/21</t>
         </is>
       </c>
       <c r="C932" t="inlineStr"/>
-      <c r="D932" t="inlineStr">
-        <is>
-          <t>$6.76T</t>
-        </is>
-      </c>
+      <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr"/>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr">
@@ -24966,83 +24920,49 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Friday March 21 2025</t>
-        </is>
-      </c>
-      <c r="B933" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAR/21</t>
+        </is>
+      </c>
       <c r="C933" t="inlineStr"/>
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr"/>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B934" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/21</t>
-        </is>
-      </c>
+          <t>Sunday March 23 2025</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr"/>
       <c r="C934" t="inlineStr"/>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr"/>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G934" t="inlineStr"/>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/21</t>
-        </is>
-      </c>
+          <t>Monday March 24 2025</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr"/>
       <c r="C935" t="inlineStr"/>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr"/>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>Sunday March 23 2025</t>
-        </is>
-      </c>
-      <c r="B936" t="inlineStr"/>
-      <c r="C936" t="inlineStr"/>
-      <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr"/>
-      <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr"/>
-    </row>
-    <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>Monday March 24 2025</t>
-        </is>
-      </c>
-      <c r="B937" t="inlineStr"/>
-      <c r="C937" t="inlineStr"/>
-      <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr"/>
-      <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
+      <c r="G935" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-24.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G957"/>
+  <dimension ref="A1:G960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23104,7 +23104,11 @@
           <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
-      <c r="C863" t="inlineStr"/>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="D863" t="inlineStr">
         <is>
           <t>64.7</t>
@@ -23137,7 +23141,11 @@
           <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
-      <c r="C864" t="inlineStr"/>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="D864" t="inlineStr">
         <is>
           <t>3.5%</t>
@@ -23166,10 +23174,14 @@
           <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
-      <c r="C865" t="inlineStr"/>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="E865" t="inlineStr">
@@ -23199,7 +23211,11 @@
           <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
-      <c r="C866" t="inlineStr"/>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
       <c r="D866" t="inlineStr">
         <is>
           <t>65.7</t>
@@ -23232,7 +23248,11 @@
           <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
-      <c r="C867" t="inlineStr"/>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="D867" t="inlineStr">
         <is>
           <t>4.3%</t>
@@ -25504,6 +25524,93 @@
         </is>
       </c>
     </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>08:45 AM</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FlashMAR</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr"/>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr"/>
+      <c r="F958" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>08:45 AM</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FlashMAR</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr"/>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr"/>
+      <c r="F959" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>08:45 AM</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FlashMAR</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr"/>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr"/>
+      <c r="F960" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-24.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-24.xlsx
@@ -23409,7 +23409,11 @@
           <t>5.7</t>
         </is>
       </c>
-      <c r="E874" t="inlineStr"/>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>-1.9</t>
+        </is>
+      </c>
       <c r="F874" t="inlineStr">
         <is>
           <t>6</t>
@@ -23558,7 +23562,11 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="E879" t="inlineStr"/>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F879" t="inlineStr">
         <is>
           <t>-0.1%</t>
@@ -23587,10 +23595,14 @@
           <t>42</t>
         </is>
       </c>
-      <c r="E880" t="inlineStr"/>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -23733,7 +23745,11 @@
           <t>1.473M</t>
         </is>
       </c>
-      <c r="E886" t="inlineStr"/>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>1.450M</t>
+        </is>
+      </c>
       <c r="F886" t="inlineStr">
         <is>
           <t>1.471M</t>
@@ -23762,7 +23778,11 @@
           <t>1.366M</t>
         </is>
       </c>
-      <c r="E887" t="inlineStr"/>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>1.375M</t>
+        </is>
+      </c>
       <c r="F887" t="inlineStr">
         <is>
           <t>1.34M</t>
@@ -24019,7 +24039,11 @@
           <t>77.8%</t>
         </is>
       </c>
-      <c r="E896" t="inlineStr"/>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="F896" t="inlineStr">
         <is>
           <t>77.7%</t>
@@ -24790,7 +24814,11 @@
           <t>$72B</t>
         </is>
       </c>
-      <c r="E927" t="inlineStr"/>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>$101.5M</t>
+        </is>
+      </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr">
         <is>
@@ -24878,10 +24906,14 @@
           <t>$-310.9B</t>
         </is>
       </c>
-      <c r="E931" t="inlineStr"/>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>$-325B</t>
+        </is>
+      </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t>$ -390.0B</t>
+          <t>$ -340.0B</t>
         </is>
       </c>
       <c r="G931" t="inlineStr">
@@ -24907,7 +24939,11 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="E932" t="inlineStr"/>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>224K</t>
+        </is>
+      </c>
       <c r="F932" t="inlineStr">
         <is>
           <t>225.0K</t>
@@ -24936,10 +24972,14 @@
           <t>18.1</t>
         </is>
       </c>
-      <c r="E933" t="inlineStr"/>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G933" t="inlineStr">
@@ -25148,7 +25188,11 @@
           <t>4.08M</t>
         </is>
       </c>
-      <c r="E941" t="inlineStr"/>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>3.92M</t>
+        </is>
+      </c>
       <c r="F941" t="inlineStr">
         <is>
           <t>4.05M</t>
@@ -25206,7 +25250,11 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="E943" t="inlineStr"/>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F943" t="inlineStr">
         <is>
           <t>-0.2%</t>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-24.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G960"/>
+  <dimension ref="A1:G962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23569,7 +23569,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G879" t="inlineStr">
@@ -23898,10 +23898,14 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="E891" t="inlineStr"/>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
@@ -23959,7 +23963,7 @@
       <c r="E893" t="inlineStr"/>
       <c r="F893" t="inlineStr">
         <is>
-          <t>5.1%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="G893" t="inlineStr">
@@ -24010,7 +24014,11 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="E895" t="inlineStr"/>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F895" t="inlineStr">
         <is>
           <t>0.4%</t>
@@ -25659,6 +25667,48 @@
         </is>
       </c>
     </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr"/>
+      <c r="D961" t="inlineStr"/>
+      <c r="E961" t="inlineStr"/>
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr"/>
+      <c r="D962" t="inlineStr"/>
+      <c r="E962" t="inlineStr"/>
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-24.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-24.xlsx
@@ -23281,7 +23281,11 @@
           <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
-      <c r="C868" t="inlineStr"/>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
       <c r="D868" t="inlineStr">
         <is>
           <t>486</t>
@@ -23306,7 +23310,11 @@
           <t>Baker Hughes Total Rigs CountMAR/14</t>
         </is>
       </c>
-      <c r="C869" t="inlineStr"/>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
       <c r="D869" t="inlineStr">
         <is>
           <t>592</t>
@@ -23840,7 +23848,11 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="E889" t="inlineStr"/>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F889" t="inlineStr">
         <is>
           <t>2%</t>
@@ -25495,7 +25507,11 @@
         </is>
       </c>
       <c r="C953" t="inlineStr"/>
-      <c r="D953" t="inlineStr"/>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
       <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr">
@@ -25516,7 +25532,11 @@
         </is>
       </c>
       <c r="C954" t="inlineStr"/>
-      <c r="D954" t="inlineStr"/>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
       <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr">
